--- a/Tbricks/OptionsNotFound.xlsx
+++ b/Tbricks/OptionsNotFound.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\u093799\Documents\GitHub\PrimoRepository\Tbricks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E2B55A-BADA-4B12-96FD-C1127E4007B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A19937-CC15-487F-821F-3581CE33E90B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="975" yWindow="390" windowWidth="17655" windowHeight="10935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="101">
   <si>
     <t>CURRENCY</t>
   </si>
@@ -305,6 +305,24 @@
   </si>
   <si>
     <t>TICKER</t>
+  </si>
+  <si>
+    <t>O_9995ee58-d18a-11ea-a100-402102c1e5a3_8ES DEC0 3900 C | 18 DEC 20 | C | A | 3900.0000000000_TBRX</t>
+  </si>
+  <si>
+    <t>O_999600aa-d18a-11ea-a100-402102c1e5a3_8ES DEC0 4000 C | 18 DEC 20 | C | A | 4000.0000000000_TBRX</t>
+  </si>
+  <si>
+    <t>8ES DEC0 3900 C | 18 DEC 20 | C | A | 3900.0000000000</t>
+  </si>
+  <si>
+    <t>8ES DEC0 4000 C | 18 DEC 20 | C | A | 4000.0000000000</t>
+  </si>
+  <si>
+    <t>8ES DEC0 3900 C</t>
+  </si>
+  <si>
+    <t>8ES DEC0 4000 C</t>
   </si>
 </sst>
 </file>
@@ -669,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BJ4"/>
+  <dimension ref="A1:BJ6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AC13" sqref="AC13"/>
+    <sheetView tabSelected="1" topLeftCell="AW1" workbookViewId="0">
+      <selection activeCell="AW7" sqref="A7:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1055,28 +1073,28 @@
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="F3">
-        <v>-20</v>
+        <v>-500</v>
       </c>
       <c r="G3">
-        <v>-2829.3956217153</v>
+        <v>-134516.64853989449</v>
       </c>
       <c r="H3">
-        <v>-113.6015212989</v>
+        <v>-11.5360928557</v>
       </c>
       <c r="I3">
-        <v>-147.1921107208</v>
+        <v>-39356.272427341799</v>
       </c>
       <c r="J3">
-        <v>625.96000534669997</v>
+        <v>13739.524550309599</v>
       </c>
       <c r="K3">
-        <v>-159.2416341055</v>
+        <v>-21192.1063684484</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>21</v>
@@ -1085,10 +1103,10 @@
         <v>21</v>
       </c>
       <c r="O3" s="2">
-        <v>44092</v>
+        <v>44183</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -1100,13 +1118,13 @@
         <v>33</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="V3" s="1" t="s">
         <v>41</v>
       </c>
       <c r="W3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X3" s="2">
         <v>44074</v>
@@ -1118,13 +1136,13 @@
         <v>30200831</v>
       </c>
       <c r="AA3">
-        <v>285</v>
+        <v>3900</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AK3" s="1" t="s">
         <v>64</v>
@@ -1133,7 +1151,7 @@
         <v>66</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="AS3" s="1" t="s">
         <v>77</v>
@@ -1174,40 +1192,40 @@
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="F4">
-        <v>300</v>
+        <v>225</v>
       </c>
       <c r="G4">
-        <v>203.82432027429999</v>
+        <v>42478.193191086997</v>
       </c>
       <c r="H4">
-        <v>31.3346930893</v>
+        <v>3.9768287984000001</v>
       </c>
       <c r="I4">
-        <v>35.858204004100003</v>
+        <v>12460.797135027</v>
       </c>
       <c r="J4">
-        <v>-248.9077777114</v>
+        <v>-4927.1101480056004</v>
       </c>
       <c r="K4">
-        <v>283.47394196070002</v>
+        <v>7613.0491956186997</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O4" s="2">
-        <v>44153</v>
+        <v>44183</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -1219,13 +1237,13 @@
         <v>33</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="V4" s="1" t="s">
         <v>41</v>
       </c>
       <c r="W4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X4" s="2">
         <v>44074</v>
@@ -1237,13 +1255,13 @@
         <v>30200831</v>
       </c>
       <c r="AA4">
-        <v>95</v>
+        <v>4000</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AK4" s="1" t="s">
         <v>64</v>
@@ -1252,7 +1270,7 @@
         <v>66</v>
       </c>
       <c r="AP4" s="1" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="AS4" s="1" t="s">
         <v>77</v>
@@ -1279,6 +1297,244 @@
         <v>77</v>
       </c>
       <c r="BD4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:62">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <v>-20</v>
+      </c>
+      <c r="G5">
+        <v>-2829.3956217153</v>
+      </c>
+      <c r="H5">
+        <v>-113.6015212989</v>
+      </c>
+      <c r="I5">
+        <v>-147.1921107208</v>
+      </c>
+      <c r="J5">
+        <v>625.96000534669997</v>
+      </c>
+      <c r="K5">
+        <v>-159.2416341055</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" s="2">
+        <v>44092</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W5">
+        <v>100</v>
+      </c>
+      <c r="X5" s="2">
+        <v>44074</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z5">
+        <v>30200831</v>
+      </c>
+      <c r="AA5">
+        <v>285</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX5">
+        <v>1</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="BA5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BB5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BD5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:62">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <v>300</v>
+      </c>
+      <c r="G6">
+        <v>203.82432027429999</v>
+      </c>
+      <c r="H6">
+        <v>31.3346930893</v>
+      </c>
+      <c r="I6">
+        <v>35.858204004100003</v>
+      </c>
+      <c r="J6">
+        <v>-248.9077777114</v>
+      </c>
+      <c r="K6">
+        <v>283.47394196070002</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O6" s="2">
+        <v>44153</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W6">
+        <v>100</v>
+      </c>
+      <c r="X6" s="2">
+        <v>44074</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z6">
+        <v>30200831</v>
+      </c>
+      <c r="AA6">
+        <v>95</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX6">
+        <v>1</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="BA6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BB6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BD6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
